--- a/biology/Zoologie/Corallus_caninus/Corallus_caninus.xlsx
+++ b/biology/Zoologie/Corallus_caninus/Corallus_caninus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boa émeraude, Boa canin
-Corallus caninus est une espèce de serpents de la famille des Boidae[1]. En français, il est appelé boa émeraude ou boa canin.
+Corallus caninus est une espèce de serpents de la famille des Boidae. En français, il est appelé boa émeraude ou boa canin.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre du niveau de la mer à 200 m d'altitude dans les forêts tropicales humides[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre du niveau de la mer à 200 m d'altitude dans les forêts tropicales humides :
 au Venezuela dans les États d'Amazonas et de Bolívar ;
 au Guyana ;
 au Suriname ;
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce serpent constricteur est caractérisé par sa robe verte. Une de ses particularités est que ses jeunes sont rouge brique (parfois d'autres couleurs) à la naissance et passent au vert aux alentours de six mois. Cette teinte vive permet de repousser les prédateurs.
 Il est souvent confondu avec Morelia viridis, le Python vert, qui vit de l'Indonésie à l'Australie et qui représente un exemple remarquable de convergence évolutive.
@@ -582,7 +598,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un serpent ovipare. La saison des amours est au printemps, lors du changement de la saison sèche à humide.
 Le nombre de petits peut aller jusqu'à 20 serpenteaux mais il est en moyenne de 7 à 12 bébés.
@@ -615,7 +633,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Linnaeus, 1758 : Systema naturae per regna tria naturae, secundum classes, ordines, genera, species, cum characteribus, differentiis, synonymis, locis, ed. 10 (texte intégral).</t>
         </is>
